--- a/Data/New_Data_1.3/cumulative installed wind capacity (2012).xlsx
+++ b/Data/New_Data_1.3/cumulative installed wind capacity (2012).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwonk\Guided Project\KNIME_Project\Data\New_Data_1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB97F200-5B67-4563-82E0-66377D3A3D29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB90B4E1-7DA7-4FE1-BED6-FE86AF26E850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{802ECDFC-DF0E-4564-B071-20992837FB18}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{802ECDFC-DF0E-4564-B071-20992837FB18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Region</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Qinghai</t>
+  </si>
+  <si>
+    <t>Xinjiang</t>
   </si>
 </sst>
 </file>
@@ -482,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B35666D-4764-4AE9-ACF1-07C52E9F8B73}">
   <dimension ref="B2:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -741,7 +744,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C33">
         <v>3.3</v>
